--- a/natmiOut/OldD2/LR-pairs_lrc2p/Ntn3-Neo1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Ntn3-Neo1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.116303890734575</v>
+        <v>0.128235</v>
       </c>
       <c r="H2">
-        <v>0.116303890734575</v>
+        <v>0.25647</v>
       </c>
       <c r="I2">
-        <v>0.07409491210377968</v>
+        <v>0.06982308780107412</v>
       </c>
       <c r="J2">
-        <v>0.07409491210377968</v>
+        <v>0.05238384591424588</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.55258088118418</v>
+        <v>2.552614</v>
       </c>
       <c r="N2">
-        <v>2.55258088118418</v>
+        <v>5.105228</v>
       </c>
       <c r="O2">
-        <v>0.05774318624327541</v>
+        <v>0.05395552785558979</v>
       </c>
       <c r="P2">
-        <v>0.05774318624327541</v>
+        <v>0.04209357928847631</v>
       </c>
       <c r="Q2">
-        <v>0.2968750878964101</v>
+        <v>0.32733445629</v>
       </c>
       <c r="R2">
-        <v>0.2968750878964101</v>
+        <v>1.30933782516</v>
       </c>
       <c r="S2">
-        <v>0.004278476309287672</v>
+        <v>0.003767341558814146</v>
       </c>
       <c r="T2">
-        <v>0.004278476309287672</v>
+        <v>0.002205023571426635</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.116303890734575</v>
+        <v>0.128235</v>
       </c>
       <c r="H3">
-        <v>0.116303890734575</v>
+        <v>0.25647</v>
       </c>
       <c r="I3">
-        <v>0.07409491210377968</v>
+        <v>0.06982308780107412</v>
       </c>
       <c r="J3">
-        <v>0.07409491210377968</v>
+        <v>0.05238384591424588</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>21.139083844097</v>
+        <v>22.74715733333333</v>
       </c>
       <c r="N3">
-        <v>21.139083844097</v>
+        <v>68.241472</v>
       </c>
       <c r="O3">
-        <v>0.4781976016586144</v>
+        <v>0.4808149140975291</v>
       </c>
       <c r="P3">
-        <v>0.4781976016586144</v>
+        <v>0.5626639618043182</v>
       </c>
       <c r="Q3">
-        <v>2.458557697632878</v>
+        <v>2.91698172064</v>
       </c>
       <c r="R3">
-        <v>2.458557697632878</v>
+        <v>17.50189032384</v>
       </c>
       <c r="S3">
-        <v>0.03543200926313328</v>
+        <v>0.03357198196309769</v>
       </c>
       <c r="T3">
-        <v>0.03543200926313328</v>
+        <v>0.02947450227665653</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.116303890734575</v>
+        <v>0.128235</v>
       </c>
       <c r="H4">
-        <v>0.116303890734575</v>
+        <v>0.25647</v>
       </c>
       <c r="I4">
-        <v>0.07409491210377968</v>
+        <v>0.06982308780107412</v>
       </c>
       <c r="J4">
-        <v>0.07409491210377968</v>
+        <v>0.05238384591424588</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.229701528471368</v>
+        <v>0.281676</v>
       </c>
       <c r="N4">
-        <v>0.229701528471368</v>
+        <v>0.845028</v>
       </c>
       <c r="O4">
-        <v>0.005196191132143089</v>
+        <v>0.005953887765346076</v>
       </c>
       <c r="P4">
-        <v>0.005196191132143089</v>
+        <v>0.006967417149436334</v>
       </c>
       <c r="Q4">
-        <v>0.02671518146889885</v>
+        <v>0.03612072186</v>
       </c>
       <c r="R4">
-        <v>0.02671518146889885</v>
+        <v>0.21672433116</v>
       </c>
       <c r="S4">
-        <v>0.0003850113252105816</v>
+        <v>0.0004157188281975</v>
       </c>
       <c r="T4">
-        <v>0.0003850113252105816</v>
+        <v>0.0003649801063763472</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.116303890734575</v>
+        <v>0.128235</v>
       </c>
       <c r="H5">
-        <v>0.116303890734575</v>
+        <v>0.25647</v>
       </c>
       <c r="I5">
-        <v>0.07409491210377968</v>
+        <v>0.06982308780107412</v>
       </c>
       <c r="J5">
-        <v>0.07409491210377968</v>
+        <v>0.05238384591424588</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.406637779734059</v>
+        <v>0.454891</v>
       </c>
       <c r="N5">
-        <v>0.406637779734059</v>
+        <v>1.364673</v>
       </c>
       <c r="O5">
-        <v>0.009198753003996014</v>
+        <v>0.009615196038945605</v>
       </c>
       <c r="P5">
-        <v>0.009198753003996014</v>
+        <v>0.01125198935842686</v>
       </c>
       <c r="Q5">
-        <v>0.04729355590274018</v>
+        <v>0.05833294738499999</v>
       </c>
       <c r="R5">
-        <v>0.04729355590274018</v>
+        <v>0.3499976843099999</v>
       </c>
       <c r="S5">
-        <v>0.0006815807952954639</v>
+        <v>0.000671362677251839</v>
       </c>
       <c r="T5">
-        <v>0.0006815807952954639</v>
+        <v>0.0005894224767805669</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.116303890734575</v>
+        <v>0.128235</v>
       </c>
       <c r="H6">
-        <v>0.116303890734575</v>
+        <v>0.25647</v>
       </c>
       <c r="I6">
-        <v>0.07409491210377968</v>
+        <v>0.06982308780107412</v>
       </c>
       <c r="J6">
-        <v>0.07409491210377968</v>
+        <v>0.05238384591424588</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.96932796430045</v>
+        <v>3.179912</v>
       </c>
       <c r="N6">
-        <v>2.96932796430045</v>
+        <v>9.539736</v>
       </c>
       <c r="O6">
-        <v>0.06717062676596738</v>
+        <v>0.06721495317910355</v>
       </c>
       <c r="P6">
-        <v>0.06717062676596738</v>
+        <v>0.07865694415746599</v>
       </c>
       <c r="Q6">
-        <v>0.3453443951151176</v>
+        <v>0.40777601532</v>
       </c>
       <c r="R6">
-        <v>0.3453443951151176</v>
+        <v>2.44665609192</v>
       </c>
       <c r="S6">
-        <v>0.004977001686180144</v>
+        <v>0.004693155577369632</v>
       </c>
       <c r="T6">
-        <v>0.004977001686180144</v>
+        <v>0.004120353242830141</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.116303890734575</v>
+        <v>0.128235</v>
       </c>
       <c r="H7">
-        <v>0.116303890734575</v>
+        <v>0.25647</v>
       </c>
       <c r="I7">
-        <v>0.07409491210377968</v>
+        <v>0.06982308780107412</v>
       </c>
       <c r="J7">
-        <v>0.07409491210377968</v>
+        <v>0.05238384591424588</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.9084184509327</v>
+        <v>18.0933415</v>
       </c>
       <c r="N7">
-        <v>16.9084184509327</v>
+        <v>36.186683</v>
       </c>
       <c r="O7">
-        <v>0.3824936411960039</v>
+        <v>0.3824455210634858</v>
       </c>
       <c r="P7">
-        <v>0.3824936411960039</v>
+        <v>0.2983661082418763</v>
       </c>
       <c r="Q7">
-        <v>1.966514852011749</v>
+        <v>2.3201996472525</v>
       </c>
       <c r="R7">
-        <v>1.966514852011749</v>
+        <v>9.280798589009999</v>
       </c>
       <c r="S7">
-        <v>0.02834083272467255</v>
+        <v>0.02670352719634331</v>
       </c>
       <c r="T7">
-        <v>0.02834083272467255</v>
+        <v>0.01562956424017566</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.329216904421806</v>
+        <v>0.409359</v>
       </c>
       <c r="H8">
-        <v>0.329216904421806</v>
+        <v>1.228077</v>
       </c>
       <c r="I8">
-        <v>0.2097375886751867</v>
+        <v>0.2228931991980341</v>
       </c>
       <c r="J8">
-        <v>0.2097375886751867</v>
+        <v>0.2508340013991085</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.55258088118418</v>
+        <v>2.552614</v>
       </c>
       <c r="N8">
-        <v>2.55258088118418</v>
+        <v>5.105228</v>
       </c>
       <c r="O8">
-        <v>0.05774318624327541</v>
+        <v>0.05395552785558979</v>
       </c>
       <c r="P8">
-        <v>0.05774318624327541</v>
+        <v>0.04209357928847631</v>
       </c>
       <c r="Q8">
-        <v>0.8403527759897416</v>
+        <v>1.044935514426</v>
       </c>
       <c r="R8">
-        <v>0.8403527759897416</v>
+        <v>6.269613086556001</v>
       </c>
       <c r="S8">
-        <v>0.0121109166450868</v>
+        <v>0.01202632021815105</v>
       </c>
       <c r="T8">
-        <v>0.0121109166450868</v>
+        <v>0.01055850092613915</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.329216904421806</v>
+        <v>0.409359</v>
       </c>
       <c r="H9">
-        <v>0.329216904421806</v>
+        <v>1.228077</v>
       </c>
       <c r="I9">
-        <v>0.2097375886751867</v>
+        <v>0.2228931991980341</v>
       </c>
       <c r="J9">
-        <v>0.2097375886751867</v>
+        <v>0.2508340013991085</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>21.139083844097</v>
+        <v>22.74715733333333</v>
       </c>
       <c r="N9">
-        <v>21.139083844097</v>
+        <v>68.241472</v>
       </c>
       <c r="O9">
-        <v>0.4781976016586144</v>
+        <v>0.4808149140975291</v>
       </c>
       <c r="P9">
-        <v>0.4781976016586144</v>
+        <v>0.5626639618043182</v>
       </c>
       <c r="Q9">
-        <v>6.959343745466626</v>
+        <v>9.311753578816001</v>
       </c>
       <c r="R9">
-        <v>6.959343745466626</v>
+        <v>83.805782209344</v>
       </c>
       <c r="S9">
-        <v>0.1002960118821352</v>
+        <v>0.1071703744253262</v>
       </c>
       <c r="T9">
-        <v>0.1002960118821352</v>
+        <v>0.1411352529824523</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.329216904421806</v>
+        <v>0.409359</v>
       </c>
       <c r="H10">
-        <v>0.329216904421806</v>
+        <v>1.228077</v>
       </c>
       <c r="I10">
-        <v>0.2097375886751867</v>
+        <v>0.2228931991980341</v>
       </c>
       <c r="J10">
-        <v>0.2097375886751867</v>
+        <v>0.2508340013991085</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.229701528471368</v>
+        <v>0.281676</v>
       </c>
       <c r="N10">
-        <v>0.229701528471368</v>
+        <v>0.845028</v>
       </c>
       <c r="O10">
-        <v>0.005196191132143089</v>
+        <v>0.005953887765346076</v>
       </c>
       <c r="P10">
-        <v>0.005196191132143089</v>
+        <v>0.006967417149436334</v>
       </c>
       <c r="Q10">
-        <v>0.07562162614430111</v>
+        <v>0.115306605684</v>
       </c>
       <c r="R10">
-        <v>0.07562162614430111</v>
+        <v>1.037759451156</v>
       </c>
       <c r="S10">
-        <v>0.00108983659835108</v>
+        <v>0.001327081091684021</v>
       </c>
       <c r="T10">
-        <v>0.00108983659835108</v>
+        <v>0.001747665123009886</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.329216904421806</v>
+        <v>0.409359</v>
       </c>
       <c r="H11">
-        <v>0.329216904421806</v>
+        <v>1.228077</v>
       </c>
       <c r="I11">
-        <v>0.2097375886751867</v>
+        <v>0.2228931991980341</v>
       </c>
       <c r="J11">
-        <v>0.2097375886751867</v>
+        <v>0.2508340013991085</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.406637779734059</v>
+        <v>0.454891</v>
       </c>
       <c r="N11">
-        <v>0.406637779734059</v>
+        <v>1.364673</v>
       </c>
       <c r="O11">
-        <v>0.009198753003996014</v>
+        <v>0.009615196038945605</v>
       </c>
       <c r="P11">
-        <v>0.009198753003996014</v>
+        <v>0.01125198935842686</v>
       </c>
       <c r="Q11">
-        <v>0.1338720310650031</v>
+        <v>0.186213724869</v>
       </c>
       <c r="R11">
-        <v>0.1338720310650031</v>
+        <v>1.675923523821</v>
       </c>
       <c r="S11">
-        <v>0.001929324273876754</v>
+        <v>0.002143161806036851</v>
       </c>
       <c r="T11">
-        <v>0.001929324273876754</v>
+        <v>0.002822381514474396</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.329216904421806</v>
+        <v>0.409359</v>
       </c>
       <c r="H12">
-        <v>0.329216904421806</v>
+        <v>1.228077</v>
       </c>
       <c r="I12">
-        <v>0.2097375886751867</v>
+        <v>0.2228931991980341</v>
       </c>
       <c r="J12">
-        <v>0.2097375886751867</v>
+        <v>0.2508340013991085</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.96932796430045</v>
+        <v>3.179912</v>
       </c>
       <c r="N12">
-        <v>2.96932796430045</v>
+        <v>9.539736</v>
       </c>
       <c r="O12">
-        <v>0.06717062676596738</v>
+        <v>0.06721495317910355</v>
       </c>
       <c r="P12">
-        <v>0.06717062676596738</v>
+        <v>0.07865694415746599</v>
       </c>
       <c r="Q12">
-        <v>0.977552960620097</v>
+        <v>1.301725596408</v>
       </c>
       <c r="R12">
-        <v>0.977552960620097</v>
+        <v>11.715530367672</v>
       </c>
       <c r="S12">
-        <v>0.01408820528769495</v>
+        <v>0.01498175594803646</v>
       </c>
       <c r="T12">
-        <v>0.01408820528769495</v>
+        <v>0.01972983604084342</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.329216904421806</v>
+        <v>0.409359</v>
       </c>
       <c r="H13">
-        <v>0.329216904421806</v>
+        <v>1.228077</v>
       </c>
       <c r="I13">
-        <v>0.2097375886751867</v>
+        <v>0.2228931991980341</v>
       </c>
       <c r="J13">
-        <v>0.2097375886751867</v>
+        <v>0.2508340013991085</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>16.9084184509327</v>
+        <v>18.0933415</v>
       </c>
       <c r="N13">
-        <v>16.9084184509327</v>
+        <v>36.186683</v>
       </c>
       <c r="O13">
-        <v>0.3824936411960039</v>
+        <v>0.3824455210634858</v>
       </c>
       <c r="P13">
-        <v>0.3824936411960039</v>
+        <v>0.2983661082418763</v>
       </c>
       <c r="Q13">
-        <v>5.566537181084612</v>
+        <v>7.406672183098501</v>
       </c>
       <c r="R13">
-        <v>5.566537181084612</v>
+        <v>44.44003309859101</v>
       </c>
       <c r="S13">
-        <v>0.08022329398804191</v>
+        <v>0.08524450570879949</v>
       </c>
       <c r="T13">
-        <v>0.08022329398804191</v>
+        <v>0.07484036481218936</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.200313926854945</v>
+        <v>0.21845</v>
       </c>
       <c r="H14">
-        <v>0.200313926854945</v>
+        <v>0.65535</v>
       </c>
       <c r="I14">
-        <v>0.1276160471480063</v>
+        <v>0.1189445434565028</v>
       </c>
       <c r="J14">
-        <v>0.1276160471480063</v>
+        <v>0.1338548501575273</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.55258088118418</v>
+        <v>2.552614</v>
       </c>
       <c r="N14">
-        <v>2.55258088118418</v>
+        <v>5.105228</v>
       </c>
       <c r="O14">
-        <v>0.05774318624327541</v>
+        <v>0.05395552785558979</v>
       </c>
       <c r="P14">
-        <v>0.05774318624327541</v>
+        <v>0.04209357928847631</v>
       </c>
       <c r="Q14">
-        <v>0.511317499924859</v>
+        <v>0.5576185283</v>
       </c>
       <c r="R14">
-        <v>0.511317499924859</v>
+        <v>3.3457111698</v>
       </c>
       <c r="S14">
-        <v>0.007368957178097946</v>
+        <v>0.006417715627737749</v>
       </c>
       <c r="T14">
-        <v>0.007368957178097946</v>
+        <v>0.005634429748252993</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.200313926854945</v>
+        <v>0.21845</v>
       </c>
       <c r="H15">
-        <v>0.200313926854945</v>
+        <v>0.65535</v>
       </c>
       <c r="I15">
-        <v>0.1276160471480063</v>
+        <v>0.1189445434565028</v>
       </c>
       <c r="J15">
-        <v>0.1276160471480063</v>
+        <v>0.1338548501575273</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>21.139083844097</v>
+        <v>22.74715733333333</v>
       </c>
       <c r="N15">
-        <v>21.139083844097</v>
+        <v>68.241472</v>
       </c>
       <c r="O15">
-        <v>0.4781976016586144</v>
+        <v>0.4808149140975291</v>
       </c>
       <c r="P15">
-        <v>0.4781976016586144</v>
+        <v>0.5626639618043182</v>
       </c>
       <c r="Q15">
-        <v>4.234452894926997</v>
+        <v>4.969116519466667</v>
       </c>
       <c r="R15">
-        <v>4.234452894926997</v>
+        <v>44.7220486752</v>
       </c>
       <c r="S15">
-        <v>0.06102568767932928</v>
+        <v>0.05719031044440823</v>
       </c>
       <c r="T15">
-        <v>0.06102568767932928</v>
+        <v>0.0753153002963577</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.200313926854945</v>
+        <v>0.21845</v>
       </c>
       <c r="H16">
-        <v>0.200313926854945</v>
+        <v>0.65535</v>
       </c>
       <c r="I16">
-        <v>0.1276160471480063</v>
+        <v>0.1189445434565028</v>
       </c>
       <c r="J16">
-        <v>0.1276160471480063</v>
+        <v>0.1338548501575273</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.229701528471368</v>
+        <v>0.281676</v>
       </c>
       <c r="N16">
-        <v>0.229701528471368</v>
+        <v>0.845028</v>
       </c>
       <c r="O16">
-        <v>0.005196191132143089</v>
+        <v>0.005953887765346076</v>
       </c>
       <c r="P16">
-        <v>0.005196191132143089</v>
+        <v>0.006967417149436334</v>
       </c>
       <c r="Q16">
-        <v>0.04601241517268267</v>
+        <v>0.0615321222</v>
       </c>
       <c r="R16">
-        <v>0.04601241517268267</v>
+        <v>0.5537890998</v>
       </c>
       <c r="S16">
-        <v>0.0006631173725096249</v>
+        <v>0.0007081824620403469</v>
       </c>
       <c r="T16">
-        <v>0.0006631173725096249</v>
+        <v>0.0009326225785227868</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.200313926854945</v>
+        <v>0.21845</v>
       </c>
       <c r="H17">
-        <v>0.200313926854945</v>
+        <v>0.65535</v>
       </c>
       <c r="I17">
-        <v>0.1276160471480063</v>
+        <v>0.1189445434565028</v>
       </c>
       <c r="J17">
-        <v>0.1276160471480063</v>
+        <v>0.1338548501575273</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.406637779734059</v>
+        <v>0.454891</v>
       </c>
       <c r="N17">
-        <v>0.406637779734059</v>
+        <v>1.364673</v>
       </c>
       <c r="O17">
-        <v>0.009198753003996014</v>
+        <v>0.009615196038945605</v>
       </c>
       <c r="P17">
-        <v>0.009198753003996014</v>
+        <v>0.01125198935842686</v>
       </c>
       <c r="Q17">
-        <v>0.08145521046610553</v>
+        <v>0.09937093895</v>
       </c>
       <c r="R17">
-        <v>0.08145521046610553</v>
+        <v>0.8943384505500001</v>
       </c>
       <c r="S17">
-        <v>0.00117390849706082</v>
+        <v>0.00114367510309716</v>
       </c>
       <c r="T17">
-        <v>0.00117390849706082</v>
+        <v>0.001506133349546319</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.200313926854945</v>
+        <v>0.21845</v>
       </c>
       <c r="H18">
-        <v>0.200313926854945</v>
+        <v>0.65535</v>
       </c>
       <c r="I18">
-        <v>0.1276160471480063</v>
+        <v>0.1189445434565028</v>
       </c>
       <c r="J18">
-        <v>0.1276160471480063</v>
+        <v>0.1338548501575273</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.96932796430045</v>
+        <v>3.179912</v>
       </c>
       <c r="N18">
-        <v>2.96932796430045</v>
+        <v>9.539736</v>
       </c>
       <c r="O18">
-        <v>0.06717062676596738</v>
+        <v>0.06721495317910355</v>
       </c>
       <c r="P18">
-        <v>0.06717062676596738</v>
+        <v>0.07865694415746599</v>
       </c>
       <c r="Q18">
-        <v>0.5947977446492231</v>
+        <v>0.6946517764</v>
       </c>
       <c r="R18">
-        <v>0.5947977446492231</v>
+        <v>6.2518659876</v>
       </c>
       <c r="S18">
-        <v>0.008572049872326831</v>
+        <v>0.007994851919338686</v>
       </c>
       <c r="T18">
-        <v>0.008572049872326831</v>
+        <v>0.01052861347404661</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.200313926854945</v>
+        <v>0.21845</v>
       </c>
       <c r="H19">
-        <v>0.200313926854945</v>
+        <v>0.65535</v>
       </c>
       <c r="I19">
-        <v>0.1276160471480063</v>
+        <v>0.1189445434565028</v>
       </c>
       <c r="J19">
-        <v>0.1276160471480063</v>
+        <v>0.1338548501575273</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>16.9084184509327</v>
+        <v>18.0933415</v>
       </c>
       <c r="N19">
-        <v>16.9084184509327</v>
+        <v>36.186683</v>
       </c>
       <c r="O19">
-        <v>0.3824936411960039</v>
+        <v>0.3824455210634858</v>
       </c>
       <c r="P19">
-        <v>0.3824936411960039</v>
+        <v>0.2983661082418763</v>
       </c>
       <c r="Q19">
-        <v>3.386991696812935</v>
+        <v>3.952490450675</v>
       </c>
       <c r="R19">
-        <v>3.386991696812935</v>
+        <v>23.71494270405</v>
       </c>
       <c r="S19">
-        <v>0.04881232654868185</v>
+        <v>0.04548980789988066</v>
       </c>
       <c r="T19">
-        <v>0.04881232654868185</v>
+        <v>0.03993775071080094</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.35448569880569</v>
+        <v>0.3921916666666667</v>
       </c>
       <c r="H20">
-        <v>0.35448569880569</v>
+        <v>1.176575</v>
       </c>
       <c r="I20">
-        <v>0.225835838587696</v>
+        <v>0.2135457026281145</v>
       </c>
       <c r="J20">
-        <v>0.225835838587696</v>
+        <v>0.240314748339197</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.55258088118418</v>
+        <v>2.552614</v>
       </c>
       <c r="N20">
-        <v>2.55258088118418</v>
+        <v>5.105228</v>
       </c>
       <c r="O20">
-        <v>0.05774318624327541</v>
+        <v>0.05395552785558979</v>
       </c>
       <c r="P20">
-        <v>0.05774318624327541</v>
+        <v>0.04209357928847631</v>
       </c>
       <c r="Q20">
-        <v>0.904853417424618</v>
+        <v>1.001113939016667</v>
       </c>
       <c r="R20">
-        <v>0.904853417424618</v>
+        <v>6.006683634100001</v>
       </c>
       <c r="S20">
-        <v>0.01304048088797561</v>
+        <v>0.01152197110659273</v>
       </c>
       <c r="T20">
-        <v>0.01304048088797561</v>
+        <v>0.01011570791340622</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.35448569880569</v>
+        <v>0.3921916666666667</v>
       </c>
       <c r="H21">
-        <v>0.35448569880569</v>
+        <v>1.176575</v>
       </c>
       <c r="I21">
-        <v>0.225835838587696</v>
+        <v>0.2135457026281145</v>
       </c>
       <c r="J21">
-        <v>0.225835838587696</v>
+        <v>0.240314748339197</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>21.139083844097</v>
+        <v>22.74715733333333</v>
       </c>
       <c r="N21">
-        <v>21.139083844097</v>
+        <v>68.241472</v>
       </c>
       <c r="O21">
-        <v>0.4781976016586144</v>
+        <v>0.4808149140975291</v>
       </c>
       <c r="P21">
-        <v>0.4781976016586144</v>
+        <v>0.5626639618043182</v>
       </c>
       <c r="Q21">
-        <v>7.493502908586796</v>
+        <v>8.92124554648889</v>
       </c>
       <c r="R21">
-        <v>7.493502908586796</v>
+        <v>80.29120991840001</v>
       </c>
       <c r="S21">
-        <v>0.1079941563811982</v>
+        <v>0.1026759586650334</v>
       </c>
       <c r="T21">
-        <v>0.1079941563811982</v>
+        <v>0.1352164483805403</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.35448569880569</v>
+        <v>0.3921916666666667</v>
       </c>
       <c r="H22">
-        <v>0.35448569880569</v>
+        <v>1.176575</v>
       </c>
       <c r="I22">
-        <v>0.225835838587696</v>
+        <v>0.2135457026281145</v>
       </c>
       <c r="J22">
-        <v>0.225835838587696</v>
+        <v>0.240314748339197</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.229701528471368</v>
+        <v>0.281676</v>
       </c>
       <c r="N22">
-        <v>0.229701528471368</v>
+        <v>0.845028</v>
       </c>
       <c r="O22">
-        <v>0.005196191132143089</v>
+        <v>0.005953887765346076</v>
       </c>
       <c r="P22">
-        <v>0.005196191132143089</v>
+        <v>0.006967417149436334</v>
       </c>
       <c r="Q22">
-        <v>0.08142590683690798</v>
+        <v>0.1104709799</v>
       </c>
       <c r="R22">
-        <v>0.08142590683690798</v>
+        <v>0.9942388191000001</v>
       </c>
       <c r="S22">
-        <v>0.001173486181789484</v>
+        <v>0.001271427146219762</v>
       </c>
       <c r="T22">
-        <v>0.001173486181789484</v>
+        <v>0.001674373098840998</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.35448569880569</v>
+        <v>0.3921916666666667</v>
       </c>
       <c r="H23">
-        <v>0.35448569880569</v>
+        <v>1.176575</v>
       </c>
       <c r="I23">
-        <v>0.225835838587696</v>
+        <v>0.2135457026281145</v>
       </c>
       <c r="J23">
-        <v>0.225835838587696</v>
+        <v>0.240314748339197</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.406637779734059</v>
+        <v>0.454891</v>
       </c>
       <c r="N23">
-        <v>0.406637779734059</v>
+        <v>1.364673</v>
       </c>
       <c r="O23">
-        <v>0.009198753003996014</v>
+        <v>0.009615196038945605</v>
       </c>
       <c r="P23">
-        <v>0.009198753003996014</v>
+        <v>0.01125198935842686</v>
       </c>
       <c r="Q23">
-        <v>0.1441472775098221</v>
+        <v>0.1784044594416667</v>
       </c>
       <c r="R23">
-        <v>0.1441472775098221</v>
+        <v>1.605640134975</v>
       </c>
       <c r="S23">
-        <v>0.002077408098618528</v>
+        <v>0.002053283794043703</v>
       </c>
       <c r="T23">
-        <v>0.002077408098618528</v>
+        <v>0.002704018990985674</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.35448569880569</v>
+        <v>0.3921916666666667</v>
       </c>
       <c r="H24">
-        <v>0.35448569880569</v>
+        <v>1.176575</v>
       </c>
       <c r="I24">
-        <v>0.225835838587696</v>
+        <v>0.2135457026281145</v>
       </c>
       <c r="J24">
-        <v>0.225835838587696</v>
+        <v>0.240314748339197</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.96932796430045</v>
+        <v>3.179912</v>
       </c>
       <c r="N24">
-        <v>2.96932796430045</v>
+        <v>9.539736</v>
       </c>
       <c r="O24">
-        <v>0.06717062676596738</v>
+        <v>0.06721495317910355</v>
       </c>
       <c r="P24">
-        <v>0.06717062676596738</v>
+        <v>0.07865694415746599</v>
       </c>
       <c r="Q24">
-        <v>1.052584298408322</v>
+        <v>1.247134987133333</v>
       </c>
       <c r="R24">
-        <v>1.052584298408322</v>
+        <v>11.2242148842</v>
       </c>
       <c r="S24">
-        <v>0.01516953482415338</v>
+        <v>0.01435346440374748</v>
       </c>
       <c r="T24">
-        <v>0.01516953482415338</v>
+        <v>0.01890242374033171</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.35448569880569</v>
+        <v>0.3921916666666667</v>
       </c>
       <c r="H25">
-        <v>0.35448569880569</v>
+        <v>1.176575</v>
       </c>
       <c r="I25">
-        <v>0.225835838587696</v>
+        <v>0.2135457026281145</v>
       </c>
       <c r="J25">
-        <v>0.225835838587696</v>
+        <v>0.240314748339197</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>16.9084184509327</v>
+        <v>18.0933415</v>
       </c>
       <c r="N25">
-        <v>16.9084184509327</v>
+        <v>36.186683</v>
       </c>
       <c r="O25">
-        <v>0.3824936411960039</v>
+        <v>0.3824455210634858</v>
       </c>
       <c r="P25">
-        <v>0.3824936411960039</v>
+        <v>0.2983661082418763</v>
       </c>
       <c r="Q25">
-        <v>5.9937925302779</v>
+        <v>7.096057758454168</v>
       </c>
       <c r="R25">
-        <v>5.9937925302779</v>
+        <v>42.57634655072501</v>
       </c>
       <c r="S25">
-        <v>0.08638077221396084</v>
+        <v>0.08166959751247745</v>
       </c>
       <c r="T25">
-        <v>0.08638077221396084</v>
+        <v>0.07170177621509213</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.157109860424846</v>
+        <v>0.202834</v>
       </c>
       <c r="H26">
-        <v>0.157109860424846</v>
+        <v>0.608502</v>
       </c>
       <c r="I26">
-        <v>0.1000915895873412</v>
+        <v>0.1104417373653298</v>
       </c>
       <c r="J26">
-        <v>0.1000915895873412</v>
+        <v>0.1242861738468844</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.55258088118418</v>
+        <v>2.552614</v>
       </c>
       <c r="N26">
-        <v>2.55258088118418</v>
+        <v>5.105228</v>
       </c>
       <c r="O26">
-        <v>0.05774318624327541</v>
+        <v>0.05395552785558979</v>
       </c>
       <c r="P26">
-        <v>0.05774318624327541</v>
+        <v>0.04209357928847631</v>
       </c>
       <c r="Q26">
-        <v>0.401035625965977</v>
+        <v>0.5177569080759999</v>
       </c>
       <c r="R26">
-        <v>0.401035625965977</v>
+        <v>3.106541448456</v>
       </c>
       <c r="S26">
-        <v>0.005779607298927329</v>
+        <v>0.005958942236834784</v>
       </c>
       <c r="T26">
-        <v>0.005779607298927329</v>
+        <v>0.005231649913285181</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.157109860424846</v>
+        <v>0.202834</v>
       </c>
       <c r="H27">
-        <v>0.157109860424846</v>
+        <v>0.608502</v>
       </c>
       <c r="I27">
-        <v>0.1000915895873412</v>
+        <v>0.1104417373653298</v>
       </c>
       <c r="J27">
-        <v>0.1000915895873412</v>
+        <v>0.1242861738468844</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>21.139083844097</v>
+        <v>22.74715733333333</v>
       </c>
       <c r="N27">
-        <v>21.139083844097</v>
+        <v>68.241472</v>
       </c>
       <c r="O27">
-        <v>0.4781976016586144</v>
+        <v>0.4808149140975291</v>
       </c>
       <c r="P27">
-        <v>0.4781976016586144</v>
+        <v>0.5626639618043182</v>
       </c>
       <c r="Q27">
-        <v>3.321158512255197</v>
+        <v>4.613896910549333</v>
       </c>
       <c r="R27">
-        <v>3.321158512255197</v>
+        <v>41.525072194944</v>
       </c>
       <c r="S27">
-        <v>0.0478635580868649</v>
+        <v>0.05310203446409292</v>
       </c>
       <c r="T27">
-        <v>0.0478635580868649</v>
+        <v>0.06993135097418823</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.157109860424846</v>
+        <v>0.202834</v>
       </c>
       <c r="H28">
-        <v>0.157109860424846</v>
+        <v>0.608502</v>
       </c>
       <c r="I28">
-        <v>0.1000915895873412</v>
+        <v>0.1104417373653298</v>
       </c>
       <c r="J28">
-        <v>0.1000915895873412</v>
+        <v>0.1242861738468844</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.229701528471368</v>
+        <v>0.281676</v>
       </c>
       <c r="N28">
-        <v>0.229701528471368</v>
+        <v>0.845028</v>
       </c>
       <c r="O28">
-        <v>0.005196191132143089</v>
+        <v>0.005953887765346076</v>
       </c>
       <c r="P28">
-        <v>0.005196191132143089</v>
+        <v>0.006967417149436334</v>
       </c>
       <c r="Q28">
-        <v>0.03608837507751041</v>
+        <v>0.05713346978399999</v>
       </c>
       <c r="R28">
-        <v>0.03608837507751041</v>
+        <v>0.514201228056</v>
       </c>
       <c r="S28">
-        <v>0.000520095030215848</v>
+        <v>0.0006575577088830017</v>
       </c>
       <c r="T28">
-        <v>0.000520095030215848</v>
+        <v>0.0008659536190986081</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.157109860424846</v>
+        <v>0.202834</v>
       </c>
       <c r="H29">
-        <v>0.157109860424846</v>
+        <v>0.608502</v>
       </c>
       <c r="I29">
-        <v>0.1000915895873412</v>
+        <v>0.1104417373653298</v>
       </c>
       <c r="J29">
-        <v>0.1000915895873412</v>
+        <v>0.1242861738468844</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.406637779734059</v>
+        <v>0.454891</v>
       </c>
       <c r="N29">
-        <v>0.406637779734059</v>
+        <v>1.364673</v>
       </c>
       <c r="O29">
-        <v>0.009198753003996014</v>
+        <v>0.009615196038945605</v>
       </c>
       <c r="P29">
-        <v>0.009198753003996014</v>
+        <v>0.01125198935842686</v>
       </c>
       <c r="Q29">
-        <v>0.06388680481748729</v>
+        <v>0.09226736109399999</v>
       </c>
       <c r="R29">
-        <v>0.06388680481748729</v>
+        <v>0.830406249846</v>
       </c>
       <c r="S29">
-        <v>0.0009207178103912911</v>
+        <v>0.00106191895564939</v>
       </c>
       <c r="T29">
-        <v>0.0009207178103912911</v>
+        <v>0.001398466705524734</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.157109860424846</v>
+        <v>0.202834</v>
       </c>
       <c r="H30">
-        <v>0.157109860424846</v>
+        <v>0.608502</v>
       </c>
       <c r="I30">
-        <v>0.1000915895873412</v>
+        <v>0.1104417373653298</v>
       </c>
       <c r="J30">
-        <v>0.1000915895873412</v>
+        <v>0.1242861738468844</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.96932796430045</v>
+        <v>3.179912</v>
       </c>
       <c r="N30">
-        <v>2.96932796430045</v>
+        <v>9.539736</v>
       </c>
       <c r="O30">
-        <v>0.06717062676596738</v>
+        <v>0.06721495317910355</v>
       </c>
       <c r="P30">
-        <v>0.06717062676596738</v>
+        <v>0.07865694415746599</v>
       </c>
       <c r="Q30">
-        <v>0.4665107020268358</v>
+        <v>0.644994270608</v>
       </c>
       <c r="R30">
-        <v>0.4665107020268358</v>
+        <v>5.804948435471999</v>
       </c>
       <c r="S30">
-        <v>0.006723214806583684</v>
+        <v>0.007423336206029494</v>
       </c>
       <c r="T30">
-        <v>0.006723214806583684</v>
+        <v>0.009775970635819498</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.157109860424846</v>
+        <v>0.202834</v>
       </c>
       <c r="H31">
-        <v>0.157109860424846</v>
+        <v>0.608502</v>
       </c>
       <c r="I31">
-        <v>0.1000915895873412</v>
+        <v>0.1104417373653298</v>
       </c>
       <c r="J31">
-        <v>0.1000915895873412</v>
+        <v>0.1242861738468844</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>16.9084184509327</v>
+        <v>18.0933415</v>
       </c>
       <c r="N31">
-        <v>16.9084184509327</v>
+        <v>36.186683</v>
       </c>
       <c r="O31">
-        <v>0.3824936411960039</v>
+        <v>0.3824455210634858</v>
       </c>
       <c r="P31">
-        <v>0.3824936411960039</v>
+        <v>0.2983661082418763</v>
       </c>
       <c r="Q31">
-        <v>2.656479262830928</v>
+        <v>3.669944829811</v>
       </c>
       <c r="R31">
-        <v>2.656479262830928</v>
+        <v>22.019668978866</v>
       </c>
       <c r="S31">
-        <v>0.03828439655435817</v>
+        <v>0.04223794779384021</v>
       </c>
       <c r="T31">
-        <v>0.03828439655435817</v>
+        <v>0.03708278199896817</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>0.412230677012277</v>
+        <v>0.4855005</v>
       </c>
       <c r="H32">
-        <v>0.412230677012277</v>
+        <v>0.971001</v>
       </c>
       <c r="I32">
-        <v>0.2626240238979901</v>
+        <v>0.2643517295509447</v>
       </c>
       <c r="J32">
-        <v>0.2626240238979901</v>
+        <v>0.1983263803430369</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>2.55258088118418</v>
+        <v>2.552614</v>
       </c>
       <c r="N32">
-        <v>2.55258088118418</v>
+        <v>5.105228</v>
       </c>
       <c r="O32">
-        <v>0.05774318624327541</v>
+        <v>0.05395552785558979</v>
       </c>
       <c r="P32">
-        <v>0.05774318624327541</v>
+        <v>0.04209357928847631</v>
       </c>
       <c r="Q32">
-        <v>1.052252144779149</v>
+        <v>1.239295373307</v>
       </c>
       <c r="R32">
-        <v>1.052252144779149</v>
+        <v>4.957181493228</v>
       </c>
       <c r="S32">
-        <v>0.01516474792390005</v>
+        <v>0.01426323710745933</v>
       </c>
       <c r="T32">
-        <v>0.01516474792390005</v>
+        <v>0.008348267215966132</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>0.412230677012277</v>
+        <v>0.4855005</v>
       </c>
       <c r="H33">
-        <v>0.412230677012277</v>
+        <v>0.971001</v>
       </c>
       <c r="I33">
-        <v>0.2626240238979901</v>
+        <v>0.2643517295509447</v>
       </c>
       <c r="J33">
-        <v>0.2626240238979901</v>
+        <v>0.1983263803430369</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>21.139083844097</v>
+        <v>22.74715733333333</v>
       </c>
       <c r="N33">
-        <v>21.139083844097</v>
+        <v>68.241472</v>
       </c>
       <c r="O33">
-        <v>0.4781976016586144</v>
+        <v>0.4808149140975291</v>
       </c>
       <c r="P33">
-        <v>0.4781976016586144</v>
+        <v>0.5626639618043182</v>
       </c>
       <c r="Q33">
-        <v>8.714178844471395</v>
+        <v>11.043756258912</v>
       </c>
       <c r="R33">
-        <v>8.714178844471395</v>
+        <v>66.262537553472</v>
       </c>
       <c r="S33">
-        <v>0.1255861783659535</v>
+        <v>0.1271042541355707</v>
       </c>
       <c r="T33">
-        <v>0.1255861783659535</v>
+        <v>0.1115911068941232</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>0.412230677012277</v>
+        <v>0.4855005</v>
       </c>
       <c r="H34">
-        <v>0.412230677012277</v>
+        <v>0.971001</v>
       </c>
       <c r="I34">
-        <v>0.2626240238979901</v>
+        <v>0.2643517295509447</v>
       </c>
       <c r="J34">
-        <v>0.2626240238979901</v>
+        <v>0.1983263803430369</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.229701528471368</v>
+        <v>0.281676</v>
       </c>
       <c r="N34">
-        <v>0.229701528471368</v>
+        <v>0.845028</v>
       </c>
       <c r="O34">
-        <v>0.005196191132143089</v>
+        <v>0.005953887765346076</v>
       </c>
       <c r="P34">
-        <v>0.005196191132143089</v>
+        <v>0.006967417149436334</v>
       </c>
       <c r="Q34">
-        <v>0.09469001659250685</v>
+        <v>0.136753838838</v>
       </c>
       <c r="R34">
-        <v>0.09469001659250685</v>
+        <v>0.820523033028</v>
       </c>
       <c r="S34">
-        <v>0.001364644624066471</v>
+        <v>0.001573920528321444</v>
       </c>
       <c r="T34">
-        <v>0.001364644624066471</v>
+        <v>0.001381822623587708</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>0.412230677012277</v>
+        <v>0.4855005</v>
       </c>
       <c r="H35">
-        <v>0.412230677012277</v>
+        <v>0.971001</v>
       </c>
       <c r="I35">
-        <v>0.2626240238979901</v>
+        <v>0.2643517295509447</v>
       </c>
       <c r="J35">
-        <v>0.2626240238979901</v>
+        <v>0.1983263803430369</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.406637779734059</v>
+        <v>0.454891</v>
       </c>
       <c r="N35">
-        <v>0.406637779734059</v>
+        <v>1.364673</v>
       </c>
       <c r="O35">
-        <v>0.009198753003996014</v>
+        <v>0.009615196038945605</v>
       </c>
       <c r="P35">
-        <v>0.009198753003996014</v>
+        <v>0.01125198935842686</v>
       </c>
       <c r="Q35">
-        <v>0.1676285672385403</v>
+        <v>0.2208498079455</v>
       </c>
       <c r="R35">
-        <v>0.1676285672385403</v>
+        <v>1.325098847673</v>
       </c>
       <c r="S35">
-        <v>0.002415813528753157</v>
+        <v>0.002541793702866663</v>
       </c>
       <c r="T35">
-        <v>0.002415813528753157</v>
+        <v>0.002231566321115169</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>0.412230677012277</v>
+        <v>0.4855005</v>
       </c>
       <c r="H36">
-        <v>0.412230677012277</v>
+        <v>0.971001</v>
       </c>
       <c r="I36">
-        <v>0.2626240238979901</v>
+        <v>0.2643517295509447</v>
       </c>
       <c r="J36">
-        <v>0.2626240238979901</v>
+        <v>0.1983263803430369</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>2.96932796430045</v>
+        <v>3.179912</v>
       </c>
       <c r="N36">
-        <v>2.96932796430045</v>
+        <v>9.539736</v>
       </c>
       <c r="O36">
-        <v>0.06717062676596738</v>
+        <v>0.06721495317910355</v>
       </c>
       <c r="P36">
-        <v>0.06717062676596738</v>
+        <v>0.07865694415746599</v>
       </c>
       <c r="Q36">
-        <v>1.224048076995061</v>
+        <v>1.543848865956</v>
       </c>
       <c r="R36">
-        <v>1.224048076995061</v>
+        <v>9.263093195735999</v>
       </c>
       <c r="S36">
-        <v>0.01764062028902839</v>
+        <v>0.01776838912458179</v>
       </c>
       <c r="T36">
-        <v>0.01764062028902839</v>
+        <v>0.01559974702359461</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>0.412230677012277</v>
+        <v>0.4855005</v>
       </c>
       <c r="H37">
-        <v>0.412230677012277</v>
+        <v>0.971001</v>
       </c>
       <c r="I37">
-        <v>0.2626240238979901</v>
+        <v>0.2643517295509447</v>
       </c>
       <c r="J37">
-        <v>0.2626240238979901</v>
+        <v>0.1983263803430369</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>16.9084184509327</v>
+        <v>18.0933415</v>
       </c>
       <c r="N37">
-        <v>16.9084184509327</v>
+        <v>36.186683</v>
       </c>
       <c r="O37">
-        <v>0.3824936411960039</v>
+        <v>0.3824455210634858</v>
       </c>
       <c r="P37">
-        <v>0.3824936411960039</v>
+        <v>0.2983661082418763</v>
       </c>
       <c r="Q37">
-        <v>6.970168785234863</v>
+        <v>8.78432634492075</v>
       </c>
       <c r="R37">
-        <v>6.970168785234863</v>
+        <v>35.137305379683</v>
       </c>
       <c r="S37">
-        <v>0.1004520191662886</v>
+        <v>0.1011001349521447</v>
       </c>
       <c r="T37">
-        <v>0.1004520191662886</v>
+        <v>0.05917387026465007</v>
       </c>
     </row>
   </sheetData>
